--- a/20150217-charter/builds/development/data/maindata.xlsx
+++ b/20150217-charter/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="21500" windowHeight="14660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="312">
   <si>
     <t>growth14</t>
   </si>
@@ -938,6 +938,24 @@
   </si>
   <si>
     <t>Source: Minnesota Department of Education</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota Department of Education</t>
+  </si>
+  <si>
+    <t>scores</t>
+  </si>
+  <si>
+    <t>MCA math and reading scores, 2014</t>
   </si>
 </sst>
 </file>
@@ -947,7 +965,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,6 +990,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1030,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1044,6 +1069,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN132"/>
   <sheetViews>
-    <sheetView topLeftCell="Z120" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AK132" sqref="AK132"/>
     </sheetView>
   </sheetViews>
@@ -15269,22 +15295,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/20150217-charter/builds/development/data/maindata.xlsx
+++ b/20150217-charter/builds/development/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="21500" windowHeight="14660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="21500" windowHeight="14660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="349">
   <si>
     <t>growth14</t>
   </si>
@@ -956,6 +957,117 @@
   </si>
   <si>
     <t>MCA math and reading scores, 2014</t>
+  </si>
+  <si>
+    <t>School district name</t>
+  </si>
+  <si>
+    <t>School district city</t>
+  </si>
+  <si>
+    <t>MMR designation for 2014</t>
+  </si>
+  <si>
+    <t>Percentage of students in poverty</t>
+  </si>
+  <si>
+    <t>Percentage of students with English as a second language</t>
+  </si>
+  <si>
+    <t>Percent of students who are minorities</t>
+  </si>
+  <si>
+    <t>Overall MMR score for 2014</t>
+  </si>
+  <si>
+    <t>Math proficiency for 2014</t>
+  </si>
+  <si>
+    <t>Reading proficiency for 2014</t>
+  </si>
+  <si>
+    <t>Students from local area</t>
+  </si>
+  <si>
+    <t>Local students reading proficiency</t>
+  </si>
+  <si>
+    <t>Local students math proficiency</t>
+  </si>
+  <si>
+    <t>School name</t>
+  </si>
+  <si>
+    <t>School type</t>
+  </si>
+  <si>
+    <t>School authorizer</t>
+  </si>
+  <si>
+    <t>Local school district</t>
+  </si>
+  <si>
+    <t>Grades taught at school</t>
+  </si>
+  <si>
+    <t>2014 proficiency</t>
+  </si>
+  <si>
+    <t>2013 proficiency</t>
+  </si>
+  <si>
+    <t>2012 proficiency</t>
+  </si>
+  <si>
+    <t>2011 proficiency</t>
+  </si>
+  <si>
+    <t>2014 growth</t>
+  </si>
+  <si>
+    <t>2013 growth</t>
+  </si>
+  <si>
+    <t>2012 growth</t>
+  </si>
+  <si>
+    <t>2011 growth</t>
+  </si>
+  <si>
+    <t>Growth change between 2014 and 2011</t>
+  </si>
+  <si>
+    <t>2014 gap</t>
+  </si>
+  <si>
+    <t>2013 gap</t>
+  </si>
+  <si>
+    <t>2012 gap</t>
+  </si>
+  <si>
+    <t>2011 gap</t>
+  </si>
+  <si>
+    <t>Gap change between 2014 and 2011</t>
+  </si>
+  <si>
+    <t>Proficiency change between 2014 and 2011</t>
+  </si>
+  <si>
+    <t>Graduation rate 2014</t>
+  </si>
+  <si>
+    <t>Graduation rate 2013</t>
+  </si>
+  <si>
+    <t>Graduation rate 2012</t>
+  </si>
+  <si>
+    <t>Graduation rate 2011</t>
+  </si>
+  <si>
+    <t>Graduation rate change between 2014 and 2011</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1077,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +1108,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1052,10 +1187,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1070,8 +1211,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1377,7 +1525,7 @@
   <dimension ref="A1:AN132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AK132" sqref="AK132"/>
+      <selection sqref="A1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15284,7 +15432,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15297,8 +15445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15340,6 +15488,332 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
